--- a/biology/Botanique/Microcitrus/Microcitrus.xlsx
+++ b/biology/Botanique/Microcitrus/Microcitrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Microcitrus est un genre de plantes proche des Citrus.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Certains auteurs citent plusieurs espèces [1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Certains auteurs citent plusieurs espèces  :
 Cinq espèces australiennes:
 Microcitrus australasica (F. Muell.) Swingle
 Microcitrus australis (Planch.) Swingle
@@ -553,7 +567,9 @@
           <t>Variétés et hybrides</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'Sydney hybrid' (M. australis × M. australasica) syn. : Microcitrus ×virgata Mabb.
  'Australian blood' (C. reticulata 'Ellendale' ? × M. australasica var. sanguinea ?)
